--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H2">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I2">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J2">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N2">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q2">
-        <v>3.146908785862223</v>
+        <v>14.99327637992223</v>
       </c>
       <c r="R2">
-        <v>28.32217907276</v>
+        <v>134.9394874193</v>
       </c>
       <c r="S2">
-        <v>0.02907462465507047</v>
+        <v>0.07468498740264137</v>
       </c>
       <c r="T2">
-        <v>0.02907462465507047</v>
+        <v>0.07468498740264137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H3">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I3">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J3">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q3">
-        <v>12.04947578696178</v>
+        <v>28.57303911592222</v>
       </c>
       <c r="R3">
-        <v>108.445282082656</v>
+        <v>257.1573520433</v>
       </c>
       <c r="S3">
-        <v>0.1113263871422589</v>
+        <v>0.1423289354744023</v>
       </c>
       <c r="T3">
-        <v>0.1113263871422589</v>
+        <v>0.1423289354744023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H4">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I4">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J4">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N4">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q4">
-        <v>7.658479626987557</v>
+        <v>17.93281456194722</v>
       </c>
       <c r="R4">
-        <v>68.92631664288801</v>
+        <v>161.395331057525</v>
       </c>
       <c r="S4">
-        <v>0.07075750704422104</v>
+        <v>0.08932750892569617</v>
       </c>
       <c r="T4">
-        <v>0.07075750704422104</v>
+        <v>0.08932750892569617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H5">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I5">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J5">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N5">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q5">
-        <v>2.970377003050667</v>
+        <v>5.554607691725</v>
       </c>
       <c r="R5">
-        <v>26.733393027456</v>
+        <v>49.991469225525</v>
       </c>
       <c r="S5">
-        <v>0.02744362875585818</v>
+        <v>0.02766878932736972</v>
       </c>
       <c r="T5">
-        <v>0.02744362875585818</v>
+        <v>0.02766878932736972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.159474</v>
       </c>
       <c r="I6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N6">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P6">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q6">
-        <v>0.2890082626433333</v>
+        <v>0.5806766579226668</v>
       </c>
       <c r="R6">
-        <v>2.60107436379</v>
+        <v>5.226089921304001</v>
       </c>
       <c r="S6">
-        <v>0.002670178047841528</v>
+        <v>0.002892485123534235</v>
       </c>
       <c r="T6">
-        <v>0.002670178047841528</v>
+        <v>0.002892485123534235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.159474</v>
       </c>
       <c r="I7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>62.452076</v>
       </c>
       <c r="O7">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P7">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q7">
         <v>1.106609152002667</v>
@@ -883,10 +883,10 @@
         <v>9.959482368024</v>
       </c>
       <c r="S7">
-        <v>0.0102240795408145</v>
+        <v>0.005512276868826421</v>
       </c>
       <c r="T7">
-        <v>0.0102240795408145</v>
+        <v>0.005512276868826421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.159474</v>
       </c>
       <c r="I8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N8">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O8">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P8">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q8">
-        <v>0.7033454231113335</v>
+        <v>0.6945224354646667</v>
       </c>
       <c r="R8">
-        <v>6.330108808002</v>
+        <v>6.250701919182</v>
       </c>
       <c r="S8">
-        <v>0.006498283099813706</v>
+        <v>0.003459577348483422</v>
       </c>
       <c r="T8">
-        <v>0.006498283099813705</v>
+        <v>0.003459577348483421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.159474</v>
       </c>
       <c r="I9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N9">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P9">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q9">
-        <v>0.272795799136</v>
+        <v>0.215125163358</v>
       </c>
       <c r="R9">
-        <v>2.455162192224</v>
+        <v>1.936126470222</v>
       </c>
       <c r="S9">
-        <v>0.002520389374802314</v>
+        <v>0.00107158833788314</v>
       </c>
       <c r="T9">
-        <v>0.002520389374802315</v>
+        <v>0.00107158833788314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H10">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N10">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P10">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q10">
-        <v>9.753020341831668</v>
+        <v>29.314722312248</v>
       </c>
       <c r="R10">
-        <v>87.77718307648502</v>
+        <v>263.832500810232</v>
       </c>
       <c r="S10">
-        <v>0.09010919126921203</v>
+        <v>0.1460234315118741</v>
       </c>
       <c r="T10">
-        <v>0.09010919126921205</v>
+        <v>0.1460234315118741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H11">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>62.452076</v>
       </c>
       <c r="O11">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P11">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q11">
-        <v>37.34419726005734</v>
+        <v>55.865755160888</v>
       </c>
       <c r="R11">
-        <v>336.097775340516</v>
+        <v>502.7917964479919</v>
       </c>
       <c r="S11">
-        <v>0.3450270065846818</v>
+        <v>0.2782802847559868</v>
       </c>
       <c r="T11">
-        <v>0.3450270065846818</v>
+        <v>0.2782802847559868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H12">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N12">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O12">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P12">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q12">
-        <v>23.73545363789367</v>
+        <v>35.062081551734</v>
       </c>
       <c r="R12">
-        <v>213.619082741043</v>
+        <v>315.558733965606</v>
       </c>
       <c r="S12">
-        <v>0.2192943782291754</v>
+        <v>0.1746523610081829</v>
       </c>
       <c r="T12">
-        <v>0.2192943782291754</v>
+        <v>0.1746523610081829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H13">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N13">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P13">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q13">
-        <v>9.205906273424</v>
+        <v>10.860320180214</v>
       </c>
       <c r="R13">
-        <v>82.85315646081601</v>
+        <v>97.74288162192599</v>
       </c>
       <c r="S13">
-        <v>0.08505434625625019</v>
+        <v>0.05409777391511954</v>
       </c>
       <c r="T13">
-        <v>0.08505434625625019</v>
+        <v>0.05409777391511954</v>
       </c>
     </row>
   </sheetData>
